--- a/updates.xlsx
+++ b/updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/shopee/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD0CD4-B7BF-2342-8E7B-DB131052260A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2758FF1E-0E90-824A-8E0E-78825F64367C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="2760" windowWidth="28040" windowHeight="17440" xr2:uid="{5483FB72-5827-3D47-9E51-0C92026B728E}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{5483FB72-5827-3D47-9E51-0C92026B728E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,26 @@
   <si>
     <t xml:space="preserve"> - EffnetB3 (full data)
 - BERT_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EffnetB1 (5-folds)
+-- margin 0.7, scale 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EffnetB1 (5-folds)
+-- margin 0.4, scale 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EffnetB3 (5-folds)
+ -- margin 0.7, scale 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EffnetB1 (5-folds)
+-- margin 0.7, scale 30, epoch 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -EffnetB1 (5-folds)
+ -- knn thr: 0.34</t>
   </si>
 </sst>
 </file>
@@ -112,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,35 +140,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +525,7 @@
   <dimension ref="A3:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -479,140 +537,170 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>44294</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>0.89100000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>44295</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44296</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44297</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>0.72499999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44297</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>44298</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.73099999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/updates.xlsx
+++ b/updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Hungry/ML/Kaggle/Competition/shopee/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2758FF1E-0E90-824A-8E0E-78825F64367C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B5756-AF76-B343-AAB2-C54919605C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{5483FB72-5827-3D47-9E51-0C92026B728E}"/>
+    <workbookView xWindow="3860" yWindow="1120" windowWidth="28040" windowHeight="16040" xr2:uid="{5483FB72-5827-3D47-9E51-0C92026B728E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,65 @@
   <si>
     <t xml:space="preserve"> -EffnetB1 (5-folds)
  -- knn thr: 0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - img: 0.7647
+- text: 0.662
+- CV: 0.7827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -EffnetB1 (5-folds)
+ -- knn thr: 0.30
+ - TFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Effnetb2
+ --thres: 0.3
+ - TFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - img: 0.7576
+- text: 0.662
+- CV: 0.7767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - img: 0.7650 
+- CV: 0.7829</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - B2, B1 (concat axis=1)
+- TFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - img: 0.771
+- CV: 0.7837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - B2, B1 (concat L2-&gt;pca)
+- TFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -B2, xception(l2 -&gt;concat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - img: 0.791
+- CV: 0.796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* SVD : doesn’t work
+- randomcrop
+- max similarity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Res50, b2 (512: l2-&gt;pca)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - img: 0.816
+- CV: 0.799</t>
   </si>
 </sst>
 </file>
@@ -164,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,15 +231,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,9 +243,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,6 +257,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,185 +602,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F30967-9244-CF4C-8FF6-6C9DBED0BEC0}">
-  <dimension ref="A3:D22"/>
+  <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="36.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="17"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="62" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>44294</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.89100000000000001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="19">
         <v>0.72099999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="G4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>44295</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
+      <c r="C5" s="9"/>
+      <c r="D5" s="20">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>44296</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
+      <c r="C6" s="9"/>
+      <c r="D6" s="20">
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44297</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="D7" s="15">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>44297</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>44297</v>
-      </c>
-      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="9" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>44298</v>
       </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44298</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44306</v>
+      </c>
       <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44306</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44306</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44308</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44301</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
